--- a/public/data/Taipei_Retro_Cafe.xlsx
+++ b/public/data/Taipei_Retro_Cafe.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="369">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>是否提供甜點</t>
   </si>
   <si>
+    <t>日</t>
+  </si>
+  <si>
     <t>一</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
     <t>六</t>
   </si>
   <si>
-    <t>日</t>
-  </si>
-  <si>
     <t>地址</t>
   </si>
   <si>
@@ -83,6 +83,12 @@
     <t>區域id</t>
   </si>
   <si>
+    <t>image quantity</t>
+  </si>
+  <si>
+    <t>address_en</t>
+  </si>
+  <si>
     <t>黑鳥咖啡</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
     <t>beitou</t>
   </si>
   <si>
+    <t>No. 433, Zhonghe St, Beitou District</t>
+  </si>
+  <si>
     <t>皁咖啡</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
     <t>wifi,plug,latteArt</t>
   </si>
   <si>
+    <t>2F, No. 3, Yuren Rd, Lane 8, Beitou District</t>
+  </si>
+  <si>
     <t>爐鍋咖啡</t>
   </si>
   <si>
@@ -161,6 +173,9 @@
     <t>wifi,plug,latteArt,dessert,petFriendly</t>
   </si>
   <si>
+    <t>No. 39, Lane 296, Section 3, Dadu Rd, Beitou District</t>
+  </si>
+  <si>
     <t>摩德年代</t>
   </si>
   <si>
@@ -188,12 +203,15 @@
     <t>隱身於士林捷運站附近巷弄的深夜咖啡廳，裝潢融合復古與工業風格，提供多樣咖啡與甜點選擇，環境舒適，適合夜間聚會。</t>
   </si>
   <si>
-    <t>wifi,plug,special,latteArt,handbrew,dessert,noTimeLimit,LGBTFriendly</t>
+    <t>wifi,plug,special,latteArt,handbrew,dessert,noTimeLimit</t>
   </si>
   <si>
     <t>shilin</t>
   </si>
   <si>
+    <t>No. 29, Lane 235, Zhongzheng Rd, Shilin District</t>
+  </si>
+  <si>
     <t>玄珠</t>
   </si>
   <si>
@@ -218,6 +236,9 @@
     <t>special,latteArt,handbrew,dessert,noTimeLimit</t>
   </si>
   <si>
+    <t>1F, No. 58, Zhongzheng Rd, Lane 213, Shilin District</t>
+  </si>
+  <si>
     <t>看電車咖啡</t>
   </si>
   <si>
@@ -242,6 +263,9 @@
     <t>wifi,plug,special,latteArt,dessert</t>
   </si>
   <si>
+    <t>No. 302, Wenlin Rd, Shilin District</t>
+  </si>
+  <si>
     <t>幻猻家珈琲</t>
   </si>
   <si>
@@ -272,6 +296,9 @@
     <t>datong</t>
   </si>
   <si>
+    <t>No. 14, Lane 14, Section 1, Dihua St, Datong District</t>
+  </si>
+  <si>
     <t>森高砂咖啡館</t>
   </si>
   <si>
@@ -290,15 +317,18 @@
     <t>wifi,plug,latteArt,handbrew,dessert,noTimeLimit</t>
   </si>
   <si>
+    <t>No. 1, Section 2, Yanping N Rd, Datong District</t>
+  </si>
+  <si>
     <t>TWATUTIA Coffee &amp; Co.</t>
   </si>
   <si>
+    <t>10:30-18:30</t>
+  </si>
+  <si>
     <t>09:30-17:30</t>
   </si>
   <si>
-    <t>10:30-18:30</t>
-  </si>
-  <si>
     <t>大同區南京西路279號</t>
   </si>
   <si>
@@ -311,6 +341,9 @@
     <t>wifi,latteArt,handbrew,dessert,noTimeLimit,petFriendly</t>
   </si>
   <si>
+    <t>No. 279, Nanjing W Rd, Datong District</t>
+  </si>
+  <si>
     <t>PAI coffee</t>
   </si>
   <si>
@@ -320,12 +353,12 @@
     <t>蜂蜜肉桂拿鐵,貝里斯奶酒拿鐵,西西里咖啡,茉莉柳橙美式咖啡</t>
   </si>
   <si>
+    <t>10:00–18:00</t>
+  </si>
+  <si>
     <t>07:30–18:30</t>
   </si>
   <si>
-    <t>10:00–18:00</t>
-  </si>
-  <si>
     <t>中山區民生東路二段147巷6弄1號</t>
   </si>
   <si>
@@ -341,6 +374,9 @@
     <t>zhongshan</t>
   </si>
   <si>
+    <t>No. 1, Alley 6, Lane 147, Section 2, Minsheng E Rd, Zhongshan District</t>
+  </si>
+  <si>
     <t>二會咖啡廳</t>
   </si>
   <si>
@@ -359,12 +395,15 @@
     <t>https://maps.app.goo.gl/a1MbxXNHh9zHHB4Z8</t>
   </si>
   <si>
-    <t>Coffee Moon 珈琲月，位於松江南京站商圈的四平街上，空間寬敞，室內提供座位，充滿簡約現代工業風裝潢，主打咖啡外帶，提供自家烘焙咖啡豆，手沖單品咖啡、拿鐵、奶茶。</t>
+    <t>隱藏在華陰街小巷裡面的復古老宅咖啡廳「二會gojiby」，整間咖啡店充滿溫暖恬適的氛圍。台式老宅窗框、碎石子地板，樸實木製家具，細緻的古董裝飾，踏入就沉浸在幽靜的懷舊風情內，很適合好好在這邊喝杯咖啡、吃個甜點，享受靜謐的下午時光。</t>
   </si>
   <si>
     <t>wifi,plug,special,latteArt,handbrew,dessert,petFriendly</t>
   </si>
   <si>
+    <t>2F, No. 21, Huayin St, Zhongshan District</t>
+  </si>
+  <si>
     <t>珈琲 寶山</t>
   </si>
   <si>
@@ -383,8 +422,10 @@
     <t>https://maps.app.goo.gl/UaZRvQmkQtMQaADk7</t>
   </si>
   <si>
-    <t xml:space="preserve">位於當代藝術館附近，門口很隱密，只有一台復古腳踏車，看不出來是一間咖啡廳。整體是木質的裝潢，氣氛很復古。招牌甜點是大人口味的提拉米蘇，可可味跟酒香味非常濃郁，是不少熟客的必點項目。
-</t>
+    <t>位於當代藝術館附近，門口很隱密，只有一台復古腳踏車，看不出來是一間咖啡廳。整體是木質的裝潢，氣氛很復古。招牌甜點是大人口味的提拉米蘇，可可味跟酒香味非常濃郁，是不少熟客的必點項目。</t>
+  </si>
+  <si>
+    <t>No. 36, Chang'an W Rd, Zhongshan District</t>
   </si>
   <si>
     <t>Shawn</t>
@@ -408,6 +449,9 @@
     <t>songshan</t>
   </si>
   <si>
+    <t>No. 16, Lane 8, Xinzhong St, Songshan District</t>
+  </si>
+  <si>
     <t>民生工寓</t>
   </si>
   <si>
@@ -429,6 +473,9 @@
     <t>已有二十年歷史的民生工寓，它像是大家的客廳般，溫暖地歡迎著來訪的顧客駐足休息。由老公寓改建而成，裝潢採用工業風與半露天設計。招牌甜點是重乳酪起司蛋糕，酸甜中帶點苦味，整體口味輕盈，層次豐富。</t>
   </si>
   <si>
+    <t>No. 3, Alley 1, Lane 56, Section 4, Minsheng E Rd, Songshan District</t>
+  </si>
+  <si>
     <t>温咖啡</t>
   </si>
   <si>
@@ -453,6 +500,9 @@
     <t>wifi,plug,special,latteArt,noTimeLimit</t>
   </si>
   <si>
+    <t>No. 27, Lane 113, Section 3, Minsheng E Rd, Songshan District</t>
+  </si>
+  <si>
     <t>自家屋珈琲焙煎所</t>
   </si>
   <si>
@@ -486,6 +536,9 @@
     <t>neihu</t>
   </si>
   <si>
+    <t>No. 2, Alley 4, Lane 437, Section 1, Neihu Rd, Neihu District</t>
+  </si>
+  <si>
     <t>河流咖啡</t>
   </si>
   <si>
@@ -504,6 +557,9 @@
     <t>一走進店裡除了寬敞的空間，還可以看到三三兩兩的書櫃區。走近一看，發覺老闆歸類的很仔細，漫畫區、小說區、百科區，就連內用座位都有分成需要脫鞋子的日式盤腿桌，和一般座位、吧台區、靠窗的沙發區。打磨的石子地和木地板拼接，配上滿滿的書香，給人一種舒適自在的氛圍。</t>
   </si>
   <si>
+    <t>No. 239, Section 2, Neihu Rd, Neihu District</t>
+  </si>
+  <si>
     <t>TIECAFE</t>
   </si>
   <si>
@@ -522,6 +578,9 @@
     <t>TIE CAFE擁有與世隔絕的隱密空間，完全不受外界干擾，靜謐而放鬆。店內播放著西洋老歌，很有復古氣息，讓人突然一股感動湧上心頭，彷彿走入舊時光。店門口充滿小歐洲風情，室內擺設許多古典風格的燈飾，無一處不是用心打造，時隔一陣子都有新面貌。</t>
   </si>
   <si>
+    <t>1F, No. 56, Lane 426, Section 2, Chenggong Rd, Neihu District</t>
+  </si>
+  <si>
     <t>月霞</t>
   </si>
   <si>
@@ -540,6 +599,9 @@
     <t>隱身赤峰街巷弄的文青風咖啡廳，傳統老宅空間，磨石子地板，懷舊復古風紅磚牆的老派浪漫。門口綠色植栽妝點，木門木質裝潢，透露出秘境咖啡廳的氛圍。這裡有提供各式餐點、咖啡與茶類飲料，適合三五好友聚會。</t>
   </si>
   <si>
+    <t>1F, No. 3, Lane 47, Chifeng St, Datong District</t>
+  </si>
+  <si>
     <t>厝邊</t>
   </si>
   <si>
@@ -564,12 +626,12 @@
     <t>店內空間小巧可愛，適合聊天，餐點豐富，能夠滿足基本飲食需求。除了咖啡，厝邊還提供氣泡酒、精釀啤酒、康普茶等多元的飲品，讓顧客在搭配餐點時有更多的選擇。</t>
   </si>
   <si>
-    <t>wifi,plug,special,latteArt,handbrew,dessert,noTimeLimit</t>
-  </si>
-  <si>
     <t>wanhua</t>
   </si>
   <si>
+    <t>No. 12, Lane 20, Dali St, Wanhua District</t>
+  </si>
+  <si>
     <t>町‧如固咖啡</t>
   </si>
   <si>
@@ -588,6 +650,9 @@
     <t>町如固Cho Cafe由老宅改建，門口有著垂吊的枝條與盆栽綠意滿滿，復古風格的室內洋溢著一種懷舊的爵士氛圍，有不少外國觀光客人光顧。町如固咖啡由冠軍烘豆師咖啡師經營，可以看到很專業的咖啡風味輪解說介紹。</t>
   </si>
   <si>
+    <t>No. 113, Kunming St, Wanhua District</t>
+  </si>
+  <si>
     <t>万 象</t>
   </si>
   <si>
@@ -618,6 +683,9 @@
     <t>zhongzheng</t>
   </si>
   <si>
+    <t>No. 10, Lane 73, Tong'an St, Zhongzheng District</t>
+  </si>
+  <si>
     <t>4F劇場咖啡</t>
   </si>
   <si>
@@ -633,6 +701,9 @@
     <t>藏身在老宅四樓的4F劇場咖啡，彷彿城市裡的一處秘密舞台。空間保留復古痕跡，搭配黑膠唱片與老件傢俱，營造出濃厚的懷舊氛圍。這裡不只是喝咖啡的地方，也時常舉辦講座與表演，是藝文愛好者的理想據點。推薦經典手沖與濃郁布朗尼，適合靜靜度過午後時光。</t>
   </si>
   <si>
+    <t>4F, No. 98, Yanping S Rd, Zhongzheng District</t>
+  </si>
+  <si>
     <t>隅咖啡</t>
   </si>
   <si>
@@ -654,6 +725,9 @@
     <t>wifi,latteArt,handbrew,dessert</t>
   </si>
   <si>
+    <t>No. 175, Section 2, Tingzhou Rd, Zhongzheng District</t>
+  </si>
+  <si>
     <t>Sugar Man Cafe</t>
   </si>
   <si>
@@ -681,6 +755,9 @@
     <t>daan</t>
   </si>
   <si>
+    <t>No. 87-1, Section 1, Heping E Rd, Da’an District</t>
+  </si>
+  <si>
     <t>秘式咖啡</t>
   </si>
   <si>
@@ -702,6 +779,9 @@
     <t>wifi,handbrew,dessert,noTimeLimit</t>
   </si>
   <si>
+    <t>No. 30, Lane 4, Pucheng St, Da’an District</t>
+  </si>
+  <si>
     <t>翌日咖啡店</t>
   </si>
   <si>
@@ -726,6 +806,9 @@
     <t>wifi,plug,special,latteArt,dessert,noTimeLimit,petFriendly</t>
   </si>
   <si>
+    <t>No. 176, Chaozhou St, Da’an District</t>
+  </si>
+  <si>
     <t>James House</t>
   </si>
   <si>
@@ -741,6 +824,9 @@
     <t>James House 處處充滿濃烈的歐洲古典氛圍，四處可見老闆蒐集古董製品的痕跡，雕刻精緻的燈飾抑或是充滿細膩紋路的木刻雕塑品，皆使人沈醉在這無比浪漫的空間，溫暖的黃光透過絢麗燈飾各自散發更加柔和的光暈，照亮整間屋子，只是靜靜待著也會感到微醺。</t>
   </si>
   <si>
+    <t>1F, No. 1, Anhe Rd, Section 1, Lane 127, Alley 29, Da’an District</t>
+  </si>
+  <si>
     <t>50年代博物館咖啡</t>
   </si>
   <si>
@@ -771,6 +857,9 @@
     <t>xinyi</t>
   </si>
   <si>
+    <t>No. 9-1, Lane 421, Guangfu S Rd, Xinyi District</t>
+  </si>
+  <si>
     <t>呷滴</t>
   </si>
   <si>
@@ -792,6 +881,9 @@
     <t>wifi,plug,special,latteArt,dessert,petFriendly</t>
   </si>
   <si>
+    <t>1F, No. 3, Alley 1, Lane 170, Wuxing St, Xinyi District</t>
+  </si>
+  <si>
     <t>Tropo Coffee</t>
   </si>
   <si>
@@ -813,6 +905,9 @@
     <t>Tropo Coffee 摩登時髦的外觀不只吸引眼球，不自覺人也走到門口。這裡販售手沖咖啡、茶類飲品和甜點，還有獨特的自家選物可以逛逛，從外貌到店內在，都是台北街頭相當獨樹一格的存在。</t>
   </si>
   <si>
+    <t>No. 49, Alley 22, Lane 553, Section 4, Zhongxiao E Rd, Xinyi District</t>
+  </si>
+  <si>
     <t>嘖咖啡</t>
   </si>
   <si>
@@ -840,6 +935,9 @@
     <t>nangang</t>
   </si>
   <si>
+    <t>No. 135, Section 2, Nangang Rd, Nangang District</t>
+  </si>
+  <si>
     <t xml:space="preserve">玉虫画室 </t>
   </si>
   <si>
@@ -864,6 +962,9 @@
     <t>wifi,plug,latteArt,handbrew,dessert,petFriendly</t>
   </si>
   <si>
+    <t>No. 11, Lane 118, Section 2, Nangang Rd, Nangang District</t>
+  </si>
+  <si>
     <t>田野咖啡</t>
   </si>
   <si>
@@ -888,6 +989,9 @@
     <t>wifi,plug,special,latteArt,handbrew,dessert</t>
   </si>
   <si>
+    <t>1F, No. 26, Lane 178, Section 2, Nangang Rd, Nangang District</t>
+  </si>
+  <si>
     <t>咖啡喫茶 枝音</t>
   </si>
   <si>
@@ -921,6 +1025,9 @@
     <t>wenshan</t>
   </si>
   <si>
+    <t>1F, No. 403, Section 3, Muxin Rd, Wenshan District</t>
+  </si>
+  <si>
     <t>自由·之丘</t>
   </si>
   <si>
@@ -939,6 +1046,9 @@
     <t>「自由之丘 CCIP &amp; CAFE」是一間結合藝術、文創與咖啡的隱藏版空間。店內保留老屋風格，搭配復古裝飾，營造出溫馨舒適的氛圍。提供不限時座位、插座，適合長時間逗留。此外，店內還會舉辦各種活動，如星空電影院、音樂會等，為顧客帶來多元的文化體驗。這裡不僅是一間咖啡廳，更是一個充滿創意與自由氛圍的聚集地。</t>
   </si>
   <si>
+    <t>1F, No. 1, Lane 69, Section 2, Muxin Rd, Wenshan District</t>
+  </si>
+  <si>
     <t>聞山咖啡</t>
   </si>
   <si>
@@ -960,6 +1070,9 @@
     <t>「聞山咖啡」，自1985年開業以來，堅持使用傳統手法烘焙與手沖，並提供自製甜點，深受顧客喜愛。店內裝潢融合日式與台式元素，營造出溫馨的氛圍。在數位化浪潮下，聞山咖啡仍堅持手作與人情味，成為當地的文化地標。這種對品質與傳統的堅持，讓聞山咖啡在競爭激烈的市場中屹立不搖。</t>
   </si>
   <si>
+    <t>No. 19, Jingzhong St, Wenshan District</t>
+  </si>
+  <si>
     <t>地區</t>
   </si>
   <si>
@@ -1006,34 +1119,13 @@
   </si>
   <si>
     <t>10491台北市中山區長安西路26巷6號</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Museum Coffee </t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>提供甜點</t>
-  </si>
-  <si>
-    <t>8:00-18:00</t>
-  </si>
-  <si>
-    <t>Museum 50 Coffee</t>
-  </si>
-  <si>
-    <t>12:00-17:30</t>
-  </si>
-  <si>
-    <t>110台灣台北市信義區吳興街170巷1弄3號一樓</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1052,6 +1144,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="Google Sans"/>
@@ -1067,30 +1164,8 @@
       <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF3A4F66"/>
-      <name val="-apple-system"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,12 +1178,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFBFC"/>
-        <bgColor rgb="FFFAFBFC"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1116,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1132,10 +1201,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1150,7 +1222,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1159,29 +1231,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,8 +1460,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="9" max="9" width="33.0"/>
-    <col customWidth="1" min="10" max="16" width="30.38"/>
+    <col customWidth="1" min="9" max="9" width="30.38"/>
+    <col customWidth="1" min="10" max="10" width="33.0"/>
+    <col customWidth="1" min="11" max="16" width="30.38"/>
     <col customWidth="1" min="20" max="20" width="66.38"/>
   </cols>
   <sheetData>
@@ -1478,8 +1536,12 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -1495,47 +1557,47 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2">
         <v>25.1454118257922</v>
@@ -1544,21 +1606,26 @@
         <v>121.497706311702</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V2" s="1">
         <v>4.9</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="X2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -1570,47 +1637,47 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2.0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>36</v>
+      <c r="B3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="2">
         <v>25.1337239581041</v>
@@ -1619,21 +1686,26 @@
         <v>121.498467604812</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V3" s="1">
         <v>5.0</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="X3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
@@ -1648,44 +1720,44 @@
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>43</v>
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="2">
         <v>25.126614282379</v>
@@ -1694,21 +1766,26 @@
         <v>121.46776496189</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="V4" s="1">
         <v>4.1</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="X4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1720,53 +1797,53 @@
       <c r="AH4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="2">
         <v>25.0947922353221</v>
@@ -1775,21 +1852,26 @@
         <v>121.526238028835</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="V5" s="1">
         <v>4.6</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X5" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="X5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -1805,45 +1887,45 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="2">
         <v>25.0937038633108</v>
@@ -1852,21 +1934,26 @@
         <v>121.526950688694</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="V6" s="1">
         <v>4.6</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X6" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="X6" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
@@ -1878,51 +1965,51 @@
       <c r="AH6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>6.0</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>69</v>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2">
         <v>25.0920589737905</v>
@@ -1931,21 +2018,26 @@
         <v>121.526364995977</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="V7" s="1">
         <v>4.1</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X7" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="X7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -1961,44 +2053,44 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="2">
         <v>25.0543445672657</v>
@@ -2007,19 +2099,25 @@
         <v>121.509798373011</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="V8" s="1">
         <v>4.5</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="X8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -2027,51 +2125,51 @@
       <c r="AC8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="2">
         <v>25.055421878122</v>
@@ -2080,21 +2178,26 @@
         <v>121.511856896856</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="V9" s="1">
         <v>4.3</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="X9" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="X9" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
@@ -2103,47 +2206,47 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="2">
         <v>25.053718503935</v>
@@ -2152,74 +2255,79 @@
         <v>121.509423901633</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="V10" s="1">
         <v>4.5</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="X10" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="X10" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="2">
         <v>25.05929</v>
@@ -2228,21 +2336,26 @@
         <v>121.534699</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V11" s="1">
         <v>4.8</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="X11" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="X11" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
@@ -2253,49 +2366,49 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="2">
         <v>25.0494711344694</v>
@@ -2304,19 +2417,25 @@
         <v>121.520403595842</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="V12" s="1">
         <v>4.5</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
+      </c>
+      <c r="X12" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -2324,50 +2443,50 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="2">
         <v>25.0502418037303</v>
@@ -2376,19 +2495,25 @@
         <v>121.520509671541</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="V13" s="1">
         <v>4.7</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
+      </c>
+      <c r="X13" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -2400,49 +2525,49 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="2">
         <v>25.0597064867932</v>
@@ -2451,73 +2576,78 @@
         <v>121.561332665427</v>
       </c>
       <c r="S14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="V14" s="1">
         <v>4.6</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="X14" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="Q15" s="2">
         <v>25.0577731239708</v>
@@ -2526,22 +2656,26 @@
         <v>121.551858915285</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="V15" s="1">
         <v>4.4</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="X15" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -2552,45 +2686,45 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="2">
         <v>25.0602016716895</v>
@@ -2599,68 +2733,72 @@
         <v>121.546224411582</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="V16" s="1">
         <v>4.5</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="X16" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="2">
         <v>25.0817588786275</v>
@@ -2669,22 +2807,26 @@
         <v>121.572125777881</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="V17" s="1">
         <v>4.6</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="X17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -2695,47 +2837,47 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="1">
         <v>25.0828824782301</v>
@@ -2744,74 +2886,79 @@
         <v>121.591301874655</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="V18" s="1">
         <v>4.8</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="X18" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="1">
         <v>25.0708908180999</v>
@@ -2820,22 +2967,26 @@
         <v>121.590310021686</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="V19" s="1">
         <v>4.6</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="X19" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -2846,49 +2997,49 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="2">
         <v>25.0555790808547</v>
@@ -2897,74 +3048,78 @@
         <v>121.519770028835</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="V20" s="1">
         <v>4.4</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="Q21" s="2">
         <v>25.0340065849163</v>
@@ -2973,22 +3128,26 @@
         <v>121.50214997574</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="V21" s="1">
         <v>4.8</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="X21" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -2998,47 +3157,47 @@
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>186</v>
+      <c r="B22" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="2">
         <v>25.042256946363</v>
@@ -3047,72 +3206,76 @@
         <v>121.504808905538</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="V22" s="1">
         <v>4.3</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="X22" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="2">
         <v>25.0234558406401</v>
@@ -3121,22 +3284,26 @@
         <v>121.521608432527</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>198</v>
+        <v>219</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="V23" s="1">
         <v>4.3</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="X23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="Z23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -3145,50 +3312,50 @@
       <c r="A24" s="1">
         <v>23.0</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>202</v>
+      <c r="B24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="Q24" s="2">
         <v>25.0432120897679</v>
@@ -3197,67 +3364,72 @@
         <v>121.510247355253</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>205</v>
+        <v>227</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="V24" s="1">
         <v>4.5</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="X24" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" s="1" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="2">
         <v>25.0245378348308</v>
@@ -3266,21 +3438,26 @@
         <v>121.521506273843</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>211</v>
+        <v>234</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="V25" s="1">
         <v>4.8</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="X25" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
@@ -3291,47 +3468,47 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="Q26" s="2">
         <v>25.0274227862327</v>
@@ -3340,69 +3517,74 @@
         <v>121.525673718276</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>219</v>
+        <v>243</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="V26" s="1">
         <v>3.8</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="X26" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>224</v>
+        <v>30</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="Q27" s="2">
         <v>25.0246842675083</v>
@@ -3411,22 +3593,26 @@
         <v>121.525372771945</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>227</v>
+        <v>252</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="V27" s="1">
         <v>4.6</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="X27" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
@@ -3437,47 +3623,47 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q28" s="1">
         <v>25.0284375779507</v>
@@ -3486,73 +3672,77 @@
         <v>121.530202611108</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="T28" s="10" t="s">
-        <v>235</v>
+        <v>261</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="V28" s="1">
         <v>4.6</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="X28" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" s="2"/>
       <c r="L29" s="1" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="Q29" s="1">
         <v>25.0354117110862</v>
@@ -3560,23 +3750,27 @@
       <c r="R29" s="1">
         <v>121.553897808577</v>
       </c>
-      <c r="S29" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>241</v>
+      <c r="S29" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="V29" s="1">
         <v>4.6</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="X29" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -3587,44 +3781,44 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>246</v>
+        <v>30</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="Q30" s="2">
         <v>25.048715019923</v>
@@ -3633,73 +3827,77 @@
         <v>121.558957027833</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="T30" s="7" t="s">
-        <v>249</v>
+        <v>277</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="V30" s="1">
         <v>4.7</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="X30" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q31" s="2">
         <v>25.029759010615</v>
@@ -3707,25 +3905,27 @@
       <c r="R31" s="2">
         <v>121.563086959166</v>
       </c>
-      <c r="S31" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>257</v>
+      <c r="S31" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="V31" s="1">
         <v>4.5</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="X31" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
@@ -3734,45 +3934,45 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="Q32" s="1">
         <v>25.0437311273677</v>
@@ -3780,100 +3980,108 @@
       <c r="R32" s="1">
         <v>121.563566049973</v>
       </c>
-      <c r="S32" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="T32" s="7" t="s">
-        <v>265</v>
+      <c r="S32" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="V32" s="1">
         <v>4.6</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="X32" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>32.0</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>266</v>
+      <c r="B33" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q33" s="12">
+        <v>88</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q33" s="13">
         <v>25.054472694851</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33" s="13">
         <v>121.597933583479</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>272</v>
+        <v>303</v>
+      </c>
+      <c r="T33" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="V33" s="1">
         <v>4.6</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="X33" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
@@ -3883,146 +4091,153 @@
       <c r="A34" s="1">
         <v>33.0</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>275</v>
+      <c r="B34" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q34" s="12">
+        <v>311</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q34" s="13">
         <v>25.0543657837159</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="13">
         <v>121.601560252277</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>281</v>
+        <v>313</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="V34" s="1">
         <v>4.6</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="X34" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>34.0</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>283</v>
+      <c r="B35" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" s="1" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q35" s="12">
+        <v>320</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q35" s="13">
         <v>25.0547447224115</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="13">
         <v>121.600253790755</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>289</v>
+        <v>322</v>
+      </c>
+      <c r="T35" s="14" t="s">
+        <v>323</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="V35" s="1">
         <v>4.9</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="X35" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
@@ -4031,143 +4246,151 @@
       <c r="A36" s="1">
         <v>35.0</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>291</v>
+      <c r="B36" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="1" t="s">
-        <v>297</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q36" s="12">
+        <v>332</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q36" s="13">
         <v>24.9802196422302</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R36" s="13">
         <v>121.55490196691</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="T36" s="13" t="s">
-        <v>300</v>
+        <v>334</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>335</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="V36" s="1">
         <v>4.8</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="X36" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>36.0</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>302</v>
+      <c r="B37" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q37" s="12">
+        <v>340</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q37" s="13">
         <v>24.9861372807182</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R37" s="13">
         <v>121.570914328835</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>307</v>
+        <v>342</v>
+      </c>
+      <c r="T37" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="V37" s="1">
         <v>4.7</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="X37" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
@@ -4177,72 +4400,76 @@
       <c r="A38" s="1">
         <v>37.0</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>308</v>
+      <c r="B38" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="1" t="s">
-        <v>311</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="1" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q38" s="12">
+        <v>348</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q38" s="13">
         <v>24.9939153631141</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R38" s="13">
         <v>121.545921750063</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>314</v>
+        <v>350</v>
+      </c>
+      <c r="T38" s="14" t="s">
+        <v>351</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="V38" s="1">
         <v>4.5</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="X38" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
@@ -4306,478 +4533,125 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="A2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="16">
         <v>121.523577</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>25.050734</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="14" t="s">
-        <v>321</v>
+      <c r="E2" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="15" t="s">
+        <v>359</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="A3" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="16">
         <v>121.552515</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>25.04379</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="14" t="s">
-        <v>324</v>
+      <c r="E3" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="15" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="A4" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="16">
         <v>121.521245</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>25.05093</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>327</v>
+      <c r="E4" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="A5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="16">
         <v>121.520531</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <v>25.049479</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>330</v>
+      <c r="E5" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="6">
       <c r="N6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="K13" s="2">
-        <v>25.048715019923</v>
-      </c>
-      <c r="L13" s="2">
-        <v>121.558957027833</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K14" s="2">
-        <v>25.029759010615</v>
-      </c>
-      <c r="L14" s="2">
-        <v>121.563086959166</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="M13"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>